--- a/Trade_PPT/auto_share_output.xlsx
+++ b/Trade_PPT/auto_share_output.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\CEPR\Trade_PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\Python\Trade_PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="9672"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="auto share" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -144,7 +144,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -155,7 +155,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'auto share'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -178,7 +178,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$71</c:f>
+              <c:f>'auto share'!$A$2:$A$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -397,7 +397,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$71</c:f>
+              <c:f>'auto share'!$D$2:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -618,250 +618,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1BA5-4EF3-890D-1C3649CC2CB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>share2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>5.9675870348139251</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1699417758369712</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.718841642228738</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3847435043304461</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1646991073999429</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0704378569486002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.5542725173210163</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.211454870877013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6396058188643838</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.1377471672961557</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3402821646662471</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.910788381742738</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.0543540669856464</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.4198417080802503</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.1084679566838282</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.0512312014543053</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.2046664578766046</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.2611548556430439</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.0654833938416015</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.4083435582822084</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.1786004409887427</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.7504509283819623</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.4834787724286693</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.3482665675248624</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.3465490666209963</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.3958983156581413</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.5774588729436481</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.6168646694214877</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.1486766534430695</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.082072858968897</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.5822627037392136</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.6948569973690901</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.1081265909349947</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.7222358078602626</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.7625973217066333</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.4253213751868454</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.1036530056897833</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.5464399732719585</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.3190696390365115</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.1174894340115902</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.0419284628968013</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.0471385599512617</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.8785725648231608</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.2752692487791819</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.9850988014253317</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.3262581621886129</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.6306714931600448</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.0928606611208407</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.0612204955572082</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.8488308930643687</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.9820874716849621</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4.9140628438146363</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.2004533879883237</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.687908369632857</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.2867781355325842</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.3579412434525162</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.2528951323551123</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.1497201606530396</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.000389500294034</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.7850735065928593</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.5458432336851406</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.8612979495332436</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.2194025813700264</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.8245034882788489</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.1500654083348909</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.1616868767525208</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.2837432225983285</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.4485456876577496</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.7592783562312193</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.8551087559440154</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1BA5-4EF3-890D-1C3649CC2CB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -926,6 +682,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -992,37 +749,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1621,15 +1347,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1956,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
